--- a/data/headers.xlsx
+++ b/data/headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiasibarburu/Desktop/Python/eco395m-Final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9678DE3C-D2EA-DA46-92EB-31361FA44557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4523BEC-169C-3749-A14E-CCA9415E61F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>buyer</t>
   </si>
@@ -41,9 +41,6 @@
     <t>premium</t>
   </si>
   <si>
-    <t>implied_ev</t>
-  </si>
-  <si>
     <t>implied_net_debt</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>short_deal_description</t>
   </si>
   <si>
-    <t>ltm_revenue</t>
-  </si>
-  <si>
-    <t>ltm_ebitda</t>
-  </si>
-  <si>
     <t>short_business_description</t>
   </si>
   <si>
@@ -83,9 +74,6 @@
     <t>date_closed</t>
   </si>
   <si>
-    <t>seller</t>
-  </si>
-  <si>
     <t>industry_of_target</t>
   </si>
   <si>
@@ -96,6 +84,15 @@
   </si>
   <si>
     <t>acquired_percentage</t>
+  </si>
+  <si>
+    <t>ly_ebitda</t>
+  </si>
+  <si>
+    <t>ly_revenue</t>
+  </si>
+  <si>
+    <t>implied_equity_value</t>
   </si>
 </sst>
 </file>
@@ -437,50 +434,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF56433-748A-6E47-B362-67AED1C9ECF0}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -492,28 +491,25 @@
         <v>4</v>
       </c>
       <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/headers.xlsx
+++ b/data/headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiasibarburu/Desktop/Python/eco395m-Final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4523BEC-169C-3749-A14E-CCA9415E61F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220A783-D793-2C46-8389-A7BB00B8A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
